--- a/Risultati/Pipeline3 TripleR/Test_usando_il_modello_2.xlsx
+++ b/Risultati/Pipeline3 TripleR/Test_usando_il_modello_2.xlsx
@@ -440,427 +440,427 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35.00514366782195</v>
+        <v>35.36355261064645</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>37.29894385343346</v>
+        <v>38.48840163139249</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>39.06329169808771</v>
+        <v>40.33928021310246</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>39.10277449381724</v>
+        <v>41.13250984825467</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>36.27040941898741</v>
+        <v>36.82726021617131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>38.99662376270754</v>
+        <v>41.43643303789648</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>36.45707548370228</v>
+        <v>38.62649634902951</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>34.55413459138725</v>
+        <v>37.29151186388066</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>32.67356969055177</v>
+        <v>36.38762104345184</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>33.71300667182334</v>
+        <v>36.26878131643321</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>29.44744228640528</v>
+        <v>31.41493417656761</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>33.04066485513152</v>
+        <v>35.03963592425407</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>31.41011226725817</v>
+        <v>33.61008544654723</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>24.45062990505573</v>
+        <v>26.06827386074252</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>23.48830825058872</v>
+        <v>25.6504450875162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>21.14633502363938</v>
+        <v>23.07929688879923</v>
       </c>
     </row>
   </sheetData>
